--- a/public/formatos/remuneracion_import.xlsx
+++ b/public/formatos/remuneracion_import.xlsx
@@ -20,15 +20,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t xml:space="preserve">numero_de_documento</t>
   </si>
   <si>
+    <t xml:space="preserve">categoria</t>
+  </si>
+  <si>
     <t xml:space="preserve">remuneracion</t>
   </si>
   <si>
     <t xml:space="preserve">monto</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Guía para una importación exitosa   ***</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Eliminar esta tabla a la hora importar</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">***</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Columna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">requerido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">requerido, en este campo se debe de ingresar el identificador del la categoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">requerido, en este campo se debe de ingresar el identificador del la remuneración</t>
   </si>
 </sst>
 </file>
@@ -38,7 +91,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -60,6 +113,22 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,13 +180,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -129,6 +210,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -137,18 +278,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="3" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -161,8 +302,77 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/public/formatos/remuneracion_import.xlsx
+++ b/public/formatos/remuneracion_import.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Worksheet" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Worksheet!$A$1:$Y$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Worksheet!$A$1:$Z$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">numero_de_documento</t>
   </si>
@@ -32,14 +32,22 @@
   </si>
   <si>
     <t xml:space="preserve">categoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="@_"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -120,12 +128,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -150,99 +166,104 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I:I"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="4" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="11" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="n">
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="L1" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="M1" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="N1" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="O1" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="P1" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="Q1" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="R1" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="S1" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="T1" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="U1" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="V1" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="W1" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="X1" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="Y1" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Z1" s="2" t="n">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y1"/>
+  <autoFilter ref="A1:Z1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
